--- a/public/files/proveedores-muestra.xlsx
+++ b/public/files/proveedores-muestra.xlsx
@@ -20,17 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
     <t xml:space="preserve">address</t>
   </si>
   <si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">nombre-proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proveedor@email.com</t>
   </si>
 </sst>
 </file>
@@ -53,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,6 +75,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -132,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -150,6 +154,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,7 +287,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,9 +320,10 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -329,9 +338,6 @@
       <c r="B5" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="proveedor@email.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
